--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_154.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_154.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2660098522167488</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2120901639344262</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(62.2, 64.4)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:43.560000', '0:00:48.100000'), ('0:00:49.560000', '0:00:55.720000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:03:29.040000', '0:03:37.180000'), ('0:00:00.260000', '0:00:07.340000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02840136054421769</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(19.13, 20.83)]</t>
+          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:04.200000', '0:00:19.320000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:02:06.620000', '0:02:09.240000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3789473684210526</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1589673913043478</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['E:7', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(13.336043, 26.115071), (17.581738, 30.271443)]</t>
+          <t>[['D:7', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(134.84, 137.48), (132.3, 136.56)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:48.277000', '0:00:54.481000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:42.620000', '0:00:45.060000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:7', 'G:(3,5,b7,b9)/F', 'C:min/D#']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(139.76, 142.68)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.34, 18.1)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:07.700000', '0:00:12.060000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08084239130434782</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C']]</t>
-        </is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_199</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1703703703703704</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['F', 'Bb', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.03, 14.36)]</t>
+          <t>[['D', 'G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.976734', '0:00:18.678775')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:01.159256', '0:00:05.756807')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5357142857142857</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj'], ['D:maj/A', 'A:maj', 'A:7', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.24, 19.08)]</t>
+          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:00.040000', '0:01:10.960000'), ('0:02:18.280000', '0:02:34.200000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1378684807256236</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:dim7', 'Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4545454545454545</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(18.7, 20.83)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(77.42, 81.62)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:10.519024', '0:01:19.249727')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(27.0, 49.86)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1587301587301587</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'A:maj', 'D:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'E', 'A', 'D']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(59.331, 67.892)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(29.008095, 37.332448)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(128.54, 132.84)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_117</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1653846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'G']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(42.922, 47.18)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.110561, 6.213665)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1964285714285714</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A/b7']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(83.05, 97.44)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_229</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2301136363636364</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'G', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B', 'A:maj/9', 'B']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(72.9339, 76.521383)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(19.824603, 28.195396)]</t>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07900136798905609</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(28.66, 30.36)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(55.943242, 63.245918)]</t>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_235</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_23</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(49.981485, 59.292687)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.16, 11.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
